--- a/data/trans_bre/P1803_2016_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1803_2016_2023-Dificultad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.004176262021075</v>
+        <v>-1.135680901167005</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.398345034002177</v>
+        <v>-3.138418902463075</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.2232861333036789</v>
+        <v>-0.2402579932451258</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2507233587298556</v>
+        <v>-0.3003970405686104</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.287239391988665</v>
+        <v>2.372432164679004</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.713703487778798</v>
+        <v>3.598040562101654</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.710521414430305</v>
+        <v>0.7402417557823947</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.6578132880716506</v>
+        <v>0.6504761542031108</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2829468371059995</v>
+        <v>0.09676356320859215</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8502384892226582</v>
+        <v>0.8958386147581661</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.03418056252203644</v>
+        <v>0.006818349796270408</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1430592799951406</v>
+        <v>0.1502066312783925</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.199378069447887</v>
+        <v>4.32257956701935</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.852218951092559</v>
+        <v>4.74816876557936</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.416418504733109</v>
+        <v>1.504449606303407</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.408324783008867</v>
+        <v>1.435096910242957</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>0.4050632525109322</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.294165294906653</v>
+        <v>1.294165294906656</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.08109673375561953</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.1407926206853158</v>
+        <v>0.1407926206853161</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.743408272961517</v>
+        <v>-1.973697888389207</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.052741889552314</v>
+        <v>-1.421199549199802</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2975634311386042</v>
+        <v>-0.3192421772182027</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1056374373125279</v>
+        <v>-0.1282353153203569</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.99575677590542</v>
+        <v>2.50204794411088</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.986180617335268</v>
+        <v>3.604055216721257</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.785292369723525</v>
+        <v>0.6910780020037985</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.5078407669829393</v>
+        <v>0.4543655821145188</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.139301311213964</v>
+        <v>-2.575244087988524</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.05282067936816025</v>
+        <v>-0.4086351581790134</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3660822147079486</v>
+        <v>-0.3216023476747096</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.004734558841818464</v>
+        <v>-0.03794326435055319</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.580330362332176</v>
+        <v>3.903668582893193</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.915394448355454</v>
+        <v>5.613902958638572</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7489959817938162</v>
+        <v>0.8557588118654934</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6945716878392859</v>
+        <v>0.6520864451656883</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>0.9008464054004177</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.914906168506404</v>
+        <v>1.914906168506401</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.1950680289560551</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.2396163484440921</v>
+        <v>0.2396163484440917</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2151291510206964</v>
+        <v>-0.2782364218902845</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5707748752205331</v>
+        <v>0.5907760940980755</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.04344324952684334</v>
+        <v>-0.05475053210159176</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.06485741661607894</v>
+        <v>0.06756775966758248</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.991629176613082</v>
+        <v>1.946273466664666</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.187989795276934</v>
+        <v>3.169910859667229</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.502701617393584</v>
+        <v>0.4771095860827207</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.4453508167513811</v>
+        <v>0.4524185714519753</v>
       </c>
     </row>
     <row r="19">
